--- a/public/template/zh-cn/user_template.xlsx
+++ b/public/template/zh-cn/user_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fzzf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoda/Documents/batch import template/user/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E50E79-39F3-E144-BA55-53B2AD4D4C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1FA44C-2B4F-AD46-9E65-D004973EAC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2160" windowWidth="28240" windowHeight="17440" xr2:uid="{29034D28-73C4-B942-810F-3A50AB83AFBE}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +78,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -104,11 +113,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,33 +446,33 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="1" max="3" width="30.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -466,5 +484,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>